--- a/m1/unidad3/Practicas/20191104/Fechas1.xlsx
+++ b/m1/unidad3/Practicas/20191104/Fechas1.xlsx
@@ -97,7 +97,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -157,9 +157,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
